--- a/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用者表" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,22 +118,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>members資料表(t_members)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_email</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -143,18 +127,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_points</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>積分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_level</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -182,10 +154,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>太長的email擋掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>縣市</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -194,55 +162,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_district</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_street </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_postalCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>郵遞區號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_addressId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_memberId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_memberId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_hash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_memberAccount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>暱稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_nickName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -286,10 +226,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>角色名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">f_description </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -678,10 +614,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>給予較大寬容度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -734,10 +666,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>char(3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>台中市</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -802,10 +730,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>transactions資料表(t_transactions)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -895,6 +819,126 @@
   </si>
   <si>
     <t>當訂單狀態status 為 12:退款完成, 則新增1筆交易紀錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(6)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>members資料表(t_members)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_points</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>積分（代表年度消費金額）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_addressId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_district</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_postalCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填自己的名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(254)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字數計算(+886) 0928969334</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分會員都是台灣, 所以使用char 即使變動 長度也不變</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字 unique</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_hash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nickname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_level</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1450,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1462,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1431,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1448,73 +1492,73 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,54 +1567,54 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1583,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1603,68 +1647,68 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1681,10 +1725,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1747,7 @@
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1736,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1754,7 +1798,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1770,10 +1814,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -1787,19 +1831,19 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="I7">
         <v>255</v>
       </c>
@@ -1807,165 +1851,165 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1974,87 +2018,103 @@
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>406</v>
+        <v>143</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2068,8 +2128,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2081,7 +2141,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2100,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -2114,51 +2174,51 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,90 +2227,90 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
@@ -2259,7 +2319,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2269,74 +2329,74 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2349,7 +2409,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2382,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -2394,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -2410,39 +2470,39 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2523,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2475,7 +2535,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2494,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2508,99 +2568,99 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2609,14 +2669,14 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2637,7 +2697,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2647,10 +2707,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2670,51 +2730,51 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2749,8 +2809,8 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2762,7 +2822,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2772,22 +2832,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2795,70 +2855,70 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2869,7 +2929,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="使用者表" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="251">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,27 +390,107 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>product流水號</t>
+    <t>f_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_updated_at </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories資料表(t_categories)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_stockQuantity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_categoryId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_categoryId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders資料表(t_orders)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_price</t>
+    <t>外鍵</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -418,23 +498,211 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>價格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_created_at </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默認為當前時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據行名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">f_updated_at </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>categories資料表(t_categories)</t>
+    <t>外鍵參照</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_totalPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_itemId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_productId </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成 "1:普通會員, 2:白銀會員, 3:鑽石會員"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道, 巷弄, 門號, 樓層</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予較大寬容度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_recipientName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderItems資料表(t_orderItems)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人電話號碼(允許國外)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_address</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>若設為預設地址, 則儲存到會員地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北屯區</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼寧路一段376號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderRefund資料表(t_orderRefund)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderRefundId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者描述退款原因</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_refundReason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字越高, 等級越高, 方便擴充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_refundAmount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金額</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactions資料表(t_transactions)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,35 +710,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>f_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_productId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_stockQuantity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_categoryId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:上架 ; 1:下架</t>
+    <t>資料類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_transactionId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_transactionType </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex : 付款, 退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>當訂單狀態 status 為4:買家取件成功, 則新增1筆交易紀錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>當訂單狀態status 為 12:退款完成, 則新增1筆交易紀錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(6)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>members資料表(t_members)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_points</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>積分（代表年度消費金額）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_addressId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_district</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_postalCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填自己的名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(254)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字數計算(+886) 0928969334</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分會員都是台灣, 所以使用char 即使變動 長度也不變</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字 unique</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_hash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nickname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_imageUrl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -478,468 +918,128 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>外鍵(1代表"其他"分類)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:下架 ; 1:上架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>外鍵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>productImages資料表(t_productImages)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productImageId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>productStyles資料表(t_productStyles)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productStyleId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f_categoryId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_style</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片存的資料夾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料夾路徑可以設定動態</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存數量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>預警可以設定在config檔案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(40)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders資料表(t_orders)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>f_introduction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大綱描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品介紹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>order流水號</t>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品外鍵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片外鍵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(1500)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>外鍵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_created_at </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默認為當前時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>數據行名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item流水號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外鍵參照</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_orderId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_memberId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_totalPrice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_itemId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_orderId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_productId </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成 "1:普通會員, 2:白銀會員, 3:鑽石會員"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>街道, 巷弄, 門號, 樓層</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>給予較大寬容度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_recipientName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderItems資料表(t_orderItems)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_phone</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人電話號碼(允許國外)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_address</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>若設為預設地址, 則儲存到會員地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北屯區</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>遼寧路一段376號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderRefund資料表(t_orderRefund)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_orderRefundId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理者描述退款原因</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_refundReason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>數字越高, 等級越高, 方便擴充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_refundAmount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款金額</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactions資料表(t_transactions)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>數據行名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料類型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_transactionId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction流水號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_orderId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外鍵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_transactionType </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex : 付款, 退款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>當訂單狀態 status 為4:買家取件成功, 則新增1筆交易紀錄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>當訂單狀態status 為 12:退款完成, 則新增1筆交易紀錄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(6)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>members資料表(t_members)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_points</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>積分（代表年度消費金額）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_addressId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_district</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_detail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_postalCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>填自己的名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(254)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字數計算(+886) 0928969334</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分會員都是台灣, 所以使用char 即使變動 長度也不變</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名字 unique</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_hash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_email</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_nickname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_memberName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>細項命名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productImageId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多10項</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1230,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,7 +1552,7 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1675,7 +1778,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,8 +1830,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1850,7 @@
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1814,7 +1917,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -1831,17 +1934,17 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G7" s="8"/>
       <c r="I7">
@@ -1851,48 +1954,48 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -1902,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -1926,10 +2029,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1938,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1956,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1997,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -2034,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>22</v>
@@ -2044,16 +2147,16 @@
         <v>29</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -2063,35 +2166,35 @@
         <v>30</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -2128,8 +2231,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2141,7 +2244,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2160,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -2174,51 +2277,51 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2230,87 +2333,87 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
@@ -2319,7 +2422,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2329,70 +2432,70 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
@@ -2409,7 +2512,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2442,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -2454,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -2476,33 +2579,33 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2520,10 +2623,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2533,7 +2636,7 @@
     <col min="6" max="6" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
@@ -2543,7 +2646,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,12 +2666,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
@@ -2580,223 +2683,443 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>250</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,7 +3145,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2832,22 +3155,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2855,70 +3178,70 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2929,7 +3252,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/資料表設計.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="262">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_price</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -422,26 +418,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>categories資料表(t_categories)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>數據行名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>f_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -455,14 +435,6 @@
   </si>
   <si>
     <t>f_categoryId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_categoryId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(40)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -918,10 +890,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>外鍵(1代表"其他"分類)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0:下架 ; 1:上架</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -942,18 +910,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>productStyles資料表(t_productStyles)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>f_productStyleId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -970,14 +926,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>圖片存的資料夾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料夾路徑可以設定動態</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>庫存數量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1006,32 +954,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>商品外鍵</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>圖片外鍵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(1500)</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>細項命名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_productImageId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最多10項</t>
@@ -1040,6 +968,122 @@
   <si>
     <t>nvarchar(30)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productStyles資料表(t_productStyles)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(25)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉泥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqlewp/eqw/123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/4448</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞肉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮪魚1箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以新增描述規範</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>細項分類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片路徑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片路徑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETDATE()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設現在時間</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設現在時間; 最後修改上下架時間</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設現在時間; 最後修改上下架時間</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_lastShelveEditTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEWE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/WEQ42</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1代表其他分類; 詳情請見其他表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_lastShelveEditTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1115,7 +1159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1186,13 +1230,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1276,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,8 +1288,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,14 +1623,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1716,14 +1775,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1778,7 +1837,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1849,14 +1908,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1917,7 +1976,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -1934,17 +1993,17 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G7" s="8"/>
       <c r="I7">
@@ -1954,48 +2013,48 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -2005,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -2029,10 +2088,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -2041,16 +2100,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2059,21 +2118,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2100,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -2137,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>22</v>
@@ -2147,16 +2206,16 @@
         <v>29</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -2166,35 +2225,35 @@
         <v>30</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -2231,7 +2290,7 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2243,14 +2302,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2263,10 +2322,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -2277,51 +2336,51 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2333,87 +2392,87 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
@@ -2421,81 +2480,81 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
@@ -2511,14 +2570,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -2545,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -2557,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -2579,33 +2638,33 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2623,10 +2682,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2636,17 +2695,17 @@
     <col min="6" max="6" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2666,12 +2725,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
@@ -2683,34 +2742,37 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2719,40 +2781,49 @@
       <c r="F6" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="M7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="M8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2767,359 +2838,402 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="M18" t="s">
+        <v>256</v>
+      </c>
+      <c r="N18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" t="s">
+        <v>242</v>
+      </c>
+      <c r="N19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20">
+        <v>230</v>
+      </c>
+      <c r="N20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="M30" t="s">
+        <v>239</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A22:F22"/>
+  <mergeCells count="3">
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3144,33 +3258,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3178,70 +3292,70 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3252,7 +3366,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
